--- a/Assets/StreamingAssets/StoryScript14.xlsx
+++ b/Assets/StreamingAssets/StoryScript14.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7896005-3173-074C-9DE8-479E7881D9E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A424A26-6E0E-CE45-A44A-19AE8C573AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,34 +118,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Dee-Thinking1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Study</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Suspicious</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Bridge-Unconnect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Dee</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>He-Sad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Finished</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>disappear</t>
-  </si>
-  <si>
-    <t>End of story</t>
+    <t>`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Investigate3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lantern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dee-Regular</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rope</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>End Investigation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoryScript15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Let's start investigation!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Under the sunlight, it’s clear that the bridge has completely broken.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(At this point, all we can do is wait for rescue from JiuJiang county—or uncover the truth as quickly as possible to put the innocent minds in the manor at ease.)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -170,7 +195,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,12 +205,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -204,7 +223,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -212,9 +231,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -551,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EEC272-F350-D34D-A243-3179172F76FB}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -620,12 +636,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="17">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
+    <row r="2" spans="1:16" ht="34">
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -634,30 +647,21 @@
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K2" s="2">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="68">
+      <c r="B3" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -665,145 +669,105 @@
       <c r="E3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" ht="17">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" ht="17">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" ht="17">
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="J6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:16">
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
+    <row r="7" spans="1:16" ht="17">
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="17">
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="17">
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>